--- a/Documentation/Test_Cases/Timer_Test_Cases.xlsx
+++ b/Documentation/Test_Cases/Timer_Test_Cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djste\Documents\GitHub\Time_Travelers_Verilog_Stopwatch\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djste\Documents\GitHub\Time_Travelers_Verilog_Stopwatch\Documentation\Test_Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2831F522-5E00-4F90-BC76-A553602335E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BDC2F-3FAC-4640-831B-DF15CF41E342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Requirement Tag</t>
   </si>
@@ -195,11 +195,6 @@
 Observe output 'o_basetick'</t>
   </si>
   <si>
-    <t>set clock signal 'sys_clk' to toggle every 5ns
-set 'i_timerenb' and 'i_reset_n' to 1
-Assert rising and falling edges of 'o_basetick' to self-check 5ms toggling</t>
-  </si>
-  <si>
     <t>i_reset_n' = 0</t>
   </si>
   <si>
@@ -212,6 +207,14 @@
   </si>
   <si>
     <t>o_basetick' toggle every 5ms</t>
+  </si>
+  <si>
+    <t>set clock signal 'sys_clk' to toggle every 5ns
+set 'i_timerenb' and 'i_reset_n' to 1
+Observe 'o_basetick' for a few cycles to ensure 10ms period.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
     <col min="8" max="8" width="16.140625" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
@@ -680,6 +683,12 @@
       <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -700,6 +709,12 @@
       <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -720,6 +735,12 @@
       <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -735,10 +756,16 @@
         <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,10 +780,16 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,10 +806,16 @@
         <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>49</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,10 +832,16 @@
         <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>41</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,7 +857,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="9"/>
       <c r="F10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,15 +877,20 @@
         <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -848,21 +904,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008B8F660E2FD5A4F9C25F557691C2E7B" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="291a90324d5b7e405cdee1cca19d0e54">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fe6e073-fbcf-4c9f-9467-c4294a786ad2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1a3d94df2e09d7482e07420c2cba8fd2" ns2:_="">
     <xsd:import namespace="0fe6e073-fbcf-4c9f-9467-c4294a786ad2"/>
@@ -1008,24 +1049,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{099A5288-121E-4A14-A6B4-83046D76B9FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1041,4 +1080,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{065C203B-187E-495A-97A5-35B3AD3DB734}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA12D9B4-0AFF-4A48-8503-C4B7A72BF3AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>